--- a/cross_validation/crossv_models.xlsx
+++ b/cross_validation/crossv_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\cross_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC95A39-9414-4109-A1F1-CBFA053E1ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5987BCCA-4195-4399-A467-C951D6E807C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3015" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Own dataset</t>
   </si>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">draft_cross_validation/cnn-local-v002 </t>
   </si>
   <si>
-    <t>draft_cross_validation/crossv-cgan-cnn-v008</t>
-  </si>
-  <si>
     <t>draft_cross_validation/densenet-local-v001</t>
   </si>
   <si>
@@ -110,12 +107,21 @@
   </si>
   <si>
     <t>* The CGAN model only ran on 40 epochs, I am going to rerun the models with a CGAN that did over 1400 epochs</t>
+  </si>
+  <si>
+    <t>draft_cross_validation/crossv-cgan-cnn-v003</t>
+  </si>
+  <si>
+    <t>* The CGAN model ran on 1000 epochs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -169,6 +175,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +613,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,25 +667,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>0.95709999999999995</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.1971</v>
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.18629999999999999</v>
       </c>
       <c r="E3" s="3">
-        <v>0.8871</v>
+        <v>0.89229999999999998</v>
       </c>
       <c r="F3" s="3">
-        <v>0.98129999999999995</v>
+        <v>0.98060000000000003</v>
       </c>
       <c r="G3" s="3">
-        <v>0.98550000000000004</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="H3" s="3">
-        <v>0.98619999999999997</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="I3" s="3">
-        <v>0.9708</v>
+        <v>0.97130000000000005</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
@@ -684,31 +693,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>0.95589999999999997</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.2175</v>
+      <c r="D4" s="6">
+        <v>0.2117</v>
       </c>
       <c r="E4" s="3">
-        <v>0.88570000000000004</v>
+        <v>0.88449999999999995</v>
       </c>
       <c r="F4" s="3">
-        <v>0.9788</v>
+        <v>0.97640000000000005</v>
       </c>
       <c r="G4" s="3">
-        <v>0.98380000000000001</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="H4" s="3">
-        <v>0.98480000000000001</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="I4" s="3">
-        <v>0.96760000000000002</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -716,58 +725,61 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>0.96560000000000001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.17419999999999999</v>
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.1706</v>
       </c>
       <c r="E5" s="3">
-        <v>0.90890000000000004</v>
+        <v>0.90990000000000004</v>
       </c>
       <c r="F5" s="3">
-        <v>0.99029999999999996</v>
+        <v>0.9889</v>
       </c>
       <c r="G5" s="3">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="H5" s="3">
         <v>0.99260000000000004</v>
       </c>
-      <c r="H5" s="3">
-        <v>0.99299999999999999</v>
-      </c>
       <c r="I5" s="3">
-        <v>0.98519999999999996</v>
+        <v>0.98429999999999995</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
-        <v>0.96640000000000004</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.19139999999999999</v>
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.18559999999999999</v>
       </c>
       <c r="E6" s="3">
-        <v>0.91110000000000002</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="F6" s="3">
-        <v>0.98960000000000004</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="G6" s="3">
-        <v>0.99199999999999999</v>
+        <v>0.9919</v>
       </c>
       <c r="H6" s="3">
-        <v>0.99239999999999995</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="I6" s="3">
-        <v>0.9839</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -777,34 +789,34 @@
         <f>MAX(C3:C6)</f>
         <v>0.96640000000000004</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <f>MIN(D3:D6)</f>
-        <v>0.17419999999999999</v>
+        <v>0.1706</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ref="E8:I8" si="0">MAX(E3:E6)</f>
-        <v>0.91110000000000002</v>
+        <v>0.90990000000000004</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.99029999999999996</v>
+        <v>0.9889</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>0.99260000000000004</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>0.99299999999999999</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>0.98519999999999996</v>
+        <v>0.98429999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -836,7 +848,7 @@
       <c r="C14" s="3">
         <v>0.97450000000000003</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>8.7900000000000006E-2</v>
       </c>
       <c r="E14" s="3">
@@ -848,12 +860,12 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3">
         <v>0.97360000000000002</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>9.2899999999999996E-2</v>
       </c>
       <c r="E15" s="3">
@@ -870,7 +882,7 @@
       <c r="C16" s="3">
         <v>0.98229999999999995</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>5.9900000000000002E-2</v>
       </c>
       <c r="E16" s="3">
@@ -882,12 +894,12 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3">
         <v>0.9778</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>0.1004</v>
       </c>
       <c r="E17" s="3">
@@ -905,7 +917,7 @@
         <f>MAX(C14:C17)</f>
         <v>0.98229999999999995</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="7">
         <f>MIN(D14:D17)</f>
         <v>5.9900000000000002E-2</v>
       </c>
@@ -916,7 +928,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
